--- a/biology/Médecine/Sinus_coronaire_(cœur)/Sinus_coronaire_(cœur).xlsx
+++ b/biology/Médecine/Sinus_coronaire_(cœur)/Sinus_coronaire_(cœur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sinus_coronaire_(c%C5%93ur)</t>
+          <t>Sinus_coronaire_(cœur)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sinus coronaire est une veine cardiaque située dans le sillon atrio-ventriculaire. Il débouche dans l'atrium droit (aussi appelé oreillette droite) entre l'orifice de la valve tricuspide (aussi appelé valve auriculo-ventriculaire droite) et l'orifice de la veine cave inférieure. Il draine le sang venant du myocarde et des artères coronaires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sinus_coronaire_(c%C5%93ur)</t>
+          <t>Sinus_coronaire_(cœur)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Utilisation en médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En électrophysiologie cardiaque, une sonde peut être montée à son niveau, permettant de déterminer la position précise d'une voie accessoire (faisceau de Kent) de la paroi latérale du ventricule gauche lors de certaines formes de syndrome de Wolff-Parkinson-White), afin de diriger une ablation par radiofréquence de cette voie.
 Dans le cadre d'une resynchronisation cardiaque, le positionnement d'une sonde dans le sinus coronaire permet de stimuler le ventricule gauche.
-En cas d'angine de poitrine réfractaire aux autres traitements, la réduction du calibre du sinus coronaire par implantation d'une prothèse dans ce dernier permet l'amélioration des symptômes[1].
+En cas d'angine de poitrine réfractaire aux autres traitements, la réduction du calibre du sinus coronaire par implantation d'une prothèse dans ce dernier permet l'amélioration des symptômes.
 </t>
         </is>
       </c>
